--- a/data/gihun/dataset/경기도출산율모델.xlsx
+++ b/data/gihun/dataset/경기도출산율모델.xlsx
@@ -2693,14 +2693,18 @@
       <c r="C81" t="n">
         <v>0.4259915611814346</v>
       </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="E81" t="n">
         <v>5925</v>
       </c>
       <c r="F81" t="n">
         <v>75.17</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>0.004381520669771138</v>
+      </c>
       <c r="H81" t="n">
         <v>46.1</v>
       </c>
@@ -2727,14 +2731,18 @@
       <c r="C82" t="n">
         <v>0.5250302785627775</v>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>9.325000000000001</v>
+      </c>
       <c r="E82" t="n">
         <v>4954</v>
       </c>
       <c r="F82" t="n">
         <v>75.31699999999999</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>0.004354908514347767</v>
+      </c>
       <c r="H82" t="n">
         <v>46.4</v>
       </c>
@@ -2761,14 +2769,18 @@
       <c r="C83" t="n">
         <v>0.4388272583201268</v>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>9.350000000000001</v>
+      </c>
       <c r="E83" t="n">
         <v>6310</v>
       </c>
       <c r="F83" t="n">
         <v>75.911</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>0.004328296358924395</v>
+      </c>
       <c r="H83" t="n">
         <v>46.9</v>
       </c>
@@ -2795,14 +2807,18 @@
       <c r="C84" t="n">
         <v>0.3970849626733025</v>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>9.375</v>
+      </c>
       <c r="E84" t="n">
         <v>5626</v>
       </c>
       <c r="F84" t="n">
         <v>76.06</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.004301684203501023</v>
+      </c>
       <c r="H84" t="n">
         <v>47.3</v>
       </c>
@@ -2829,14 +2845,18 @@
       <c r="C85" t="n">
         <v>0.3296553603051355</v>
       </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="n">
+        <v>9.4</v>
+      </c>
       <c r="E85" t="n">
         <v>7341</v>
       </c>
       <c r="F85" t="n">
         <v>76.134</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>0.004275072048077653</v>
+      </c>
       <c r="H85" t="n">
         <v>47.7</v>
       </c>
@@ -2863,14 +2883,18 @@
       <c r="C86" t="n">
         <v>0.3685297153812122</v>
       </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="n">
+        <v>9.425000000000001</v>
+      </c>
       <c r="E86" t="n">
         <v>6781</v>
       </c>
       <c r="F86" t="n">
         <v>75.986</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>0.004248459892654282</v>
+      </c>
       <c r="H86" t="n">
         <v>47.8</v>
       </c>
@@ -2897,14 +2921,18 @@
       <c r="C87" t="n">
         <v>0.4709702062643239</v>
       </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="n">
+        <v>9.449999999999999</v>
+      </c>
       <c r="E87" t="n">
         <v>5236</v>
       </c>
       <c r="F87" t="n">
         <v>76.283</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>0.00422184773723091</v>
+      </c>
       <c r="H87" t="n">
         <v>47.8</v>
       </c>
@@ -2931,14 +2959,18 @@
       <c r="C88" t="n">
         <v>0.463919259882254</v>
       </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="n">
+        <v>9.475</v>
+      </c>
       <c r="E88" t="n">
         <v>5945</v>
       </c>
       <c r="F88" t="n">
         <v>76.729</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>0.004195235581807538</v>
+      </c>
       <c r="H88" t="n">
         <v>48.1</v>
       </c>
@@ -2965,14 +2997,18 @@
       <c r="C89" t="n">
         <v>0.4981314574631787</v>
       </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="n">
+        <v>9.5</v>
+      </c>
       <c r="E89" t="n">
         <v>4549</v>
       </c>
       <c r="F89" t="n">
         <v>76.803</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>0.004168623426384167</v>
+      </c>
       <c r="H89" t="n">
         <v>48.8</v>
       </c>
@@ -2999,14 +3035,18 @@
       <c r="C90" t="n">
         <v>0.4246066819869189</v>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>9.525</v>
+      </c>
       <c r="E90" t="n">
         <v>5657</v>
       </c>
       <c r="F90" t="n">
         <v>76.432</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>0.004142011270960796</v>
+      </c>
       <c r="H90" t="n">
         <v>49.8</v>
       </c>
@@ -3033,14 +3073,18 @@
       <c r="C91" t="n">
         <v>0.3265154332465601</v>
       </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="n">
+        <v>9.550000000000001</v>
+      </c>
       <c r="E91" t="n">
         <v>8067</v>
       </c>
       <c r="F91" t="n">
         <v>76.06</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0.004115399115537425</v>
+      </c>
       <c r="H91" t="n">
         <v>50.9</v>
       </c>
@@ -3067,14 +3111,18 @@
       <c r="C92" t="n">
         <v>0.224169741697417</v>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="n">
+        <v>9.574999999999999</v>
+      </c>
       <c r="E92" t="n">
         <v>10840</v>
       </c>
       <c r="F92" t="n">
         <v>76.283</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>0.004088786960114053</v>
+      </c>
       <c r="H92" t="n">
         <v>51.4</v>
       </c>
@@ -3101,14 +3149,18 @@
       <c r="C93" t="n">
         <v>0.3554781676935441</v>
       </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="n">
+        <v>9.6</v>
+      </c>
       <c r="E93" t="n">
         <v>7466</v>
       </c>
       <c r="F93" t="n">
         <v>76.505</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>0.004062174804690682</v>
+      </c>
       <c r="H93" t="n">
         <v>51.9</v>
       </c>
@@ -3135,14 +3187,18 @@
       <c r="C94" t="n">
         <v>0.3782141187470781</v>
       </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="n">
+        <v>9.458333333333332</v>
+      </c>
       <c r="E94" t="n">
         <v>6417</v>
       </c>
       <c r="F94" t="n">
         <v>76.877</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>0.004037502268508175</v>
+      </c>
       <c r="H94" t="n">
         <v>52.2</v>
       </c>
@@ -3169,14 +3225,18 @@
       <c r="C95" t="n">
         <v>0.3962414397197006</v>
       </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="n">
+        <v>9.316666666666666</v>
+      </c>
       <c r="E95" t="n">
         <v>6279</v>
       </c>
       <c r="F95" t="n">
         <v>77.39700000000001</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="n">
+        <v>0.004012829732325668</v>
+      </c>
       <c r="H95" t="n">
         <v>52.6</v>
       </c>
@@ -3203,14 +3263,18 @@
       <c r="C96" t="n">
         <v>0.3908210258853422</v>
       </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="n">
+        <v>9.175000000000001</v>
+      </c>
       <c r="E96" t="n">
         <v>6297</v>
       </c>
       <c r="F96" t="n">
         <v>77.694</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>0.003988157196143161</v>
+      </c>
       <c r="H96" t="n">
         <v>52.9</v>
       </c>
@@ -3237,14 +3301,18 @@
       <c r="C97" t="n">
         <v>0.3530742613787596</v>
       </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>9.033333333333333</v>
+      </c>
       <c r="E97" t="n">
         <v>7514</v>
       </c>
       <c r="F97" t="n">
         <v>77.843</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>0.003963484659960654</v>
+      </c>
       <c r="H97" t="n">
         <v>52.7</v>
       </c>
@@ -3271,14 +3339,18 @@
       <c r="C98" t="n">
         <v>0.3535660091047041</v>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>8.891666666666666</v>
+      </c>
       <c r="E98" t="n">
         <v>6590</v>
       </c>
       <c r="F98" t="n">
         <v>77.843</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>0.003938812123778146</v>
+      </c>
       <c r="H98" t="n">
         <v>52.7</v>
       </c>
@@ -3305,14 +3377,18 @@
       <c r="C99" t="n">
         <v>0.4169353470218904</v>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>8.75</v>
+      </c>
       <c r="E99" t="n">
         <v>5893</v>
       </c>
       <c r="F99" t="n">
         <v>78.14</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>0.003914139587595639</v>
+      </c>
       <c r="H99" t="n">
         <v>52.7</v>
       </c>
@@ -3339,14 +3415,18 @@
       <c r="C100" t="n">
         <v>0.4530899775856548</v>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>8.608333333333334</v>
+      </c>
       <c r="E100" t="n">
         <v>6246</v>
       </c>
       <c r="F100" t="n">
         <v>78.288</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>0.003889467051413132</v>
+      </c>
       <c r="H100" t="n">
         <v>52.7</v>
       </c>
@@ -3373,14 +3453,18 @@
       <c r="C101" t="n">
         <v>0.4745458623009643</v>
       </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>8.466666666666667</v>
+      </c>
       <c r="E101" t="n">
         <v>4459</v>
       </c>
       <c r="F101" t="n">
         <v>78.66</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>0.003864794515230625</v>
+      </c>
       <c r="H101" t="n">
         <v>53</v>
       </c>
@@ -3407,14 +3491,18 @@
       <c r="C102" t="n">
         <v>0.4192272588986918</v>
       </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>8.324999999999999</v>
+      </c>
       <c r="E102" t="n">
         <v>6574</v>
       </c>
       <c r="F102" t="n">
         <v>78.73399999999999</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>0.003840121979048117</v>
+      </c>
       <c r="H102" t="n">
         <v>53.1</v>
       </c>
@@ -3441,14 +3529,18 @@
       <c r="C103" t="n">
         <v>0.3202233250620347</v>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="n">
+        <v>8.183333333333334</v>
+      </c>
       <c r="E103" t="n">
         <v>8060</v>
       </c>
       <c r="F103" t="n">
         <v>78.883</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>0.00381544944286561</v>
+      </c>
       <c r="H103" t="n">
         <v>53</v>
       </c>
@@ -3475,14 +3567,18 @@
       <c r="C104" t="n">
         <v>0.2338940019041574</v>
       </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="n">
+        <v>8.041666666666668</v>
+      </c>
       <c r="E104" t="n">
         <v>9453</v>
       </c>
       <c r="F104" t="n">
         <v>79.18000000000001</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>0.003790776906683103</v>
+      </c>
       <c r="H104" t="n">
         <v>53</v>
       </c>
@@ -9898,7 +9994,9 @@
       <c r="F273" t="n">
         <v>104.79</v>
       </c>
-      <c r="G273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>0.0016232486595736</v>
+      </c>
       <c r="H273" t="n">
         <v>106</v>
       </c>
@@ -9928,7 +10026,9 @@
       <c r="F274" t="n">
         <v>105.36</v>
       </c>
-      <c r="G274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>0.0016232486595736</v>
+      </c>
       <c r="H274" t="n">
         <v>105.9</v>
       </c>
@@ -9958,7 +10058,9 @@
       <c r="F275" t="n">
         <v>106.14</v>
       </c>
-      <c r="G275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>0.0016232486595736</v>
+      </c>
       <c r="H275" t="n">
         <v>105.8</v>
       </c>
@@ -9988,7 +10090,9 @@
       <c r="F276" t="n">
         <v>106.89</v>
       </c>
-      <c r="G276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>0.0016232486595736</v>
+      </c>
       <c r="H276" t="n">
         <v>105.7</v>
       </c>
@@ -10018,7 +10122,9 @@
       <c r="F277" t="n">
         <v>107.6</v>
       </c>
-      <c r="G277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>0.0016232486595736</v>
+      </c>
       <c r="H277" t="n">
         <v>105.6</v>
       </c>
@@ -10048,7 +10154,9 @@
       <c r="F278" t="n">
         <v>108.19</v>
       </c>
-      <c r="G278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>0.0016232486595736</v>
+      </c>
       <c r="H278" t="n">
         <v>105.6</v>
       </c>
@@ -10078,7 +10186,9 @@
       <c r="F279" t="n">
         <v>108.72</v>
       </c>
-      <c r="G279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>0.0016232486595736</v>
+      </c>
       <c r="H279" t="n">
         <v>105.3</v>
       </c>
@@ -10108,7 +10218,9 @@
       <c r="F280" t="n">
         <v>108.57</v>
       </c>
-      <c r="G280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>0.0016232486595736</v>
+      </c>
       <c r="H280" t="n">
         <v>104.6</v>
       </c>
@@ -10138,7 +10250,9 @@
       <c r="F281" t="n">
         <v>108.87</v>
       </c>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>0.0016232486595736</v>
+      </c>
       <c r="H281" t="n">
         <v>103.4</v>
       </c>
@@ -10168,7 +10282,9 @@
       <c r="F282" t="n">
         <v>109.15</v>
       </c>
-      <c r="G282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>0.0016232486595736</v>
+      </c>
       <c r="H282" t="n">
         <v>101.3</v>
       </c>
@@ -10198,7 +10314,9 @@
       <c r="F283" t="n">
         <v>109.1</v>
       </c>
-      <c r="G283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>0.0016232486595736</v>
+      </c>
       <c r="H283" t="n">
         <v>97.90000000000001</v>
       </c>
@@ -10222,13 +10340,15 @@
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>14.7</v>
+        <v>18</v>
       </c>
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="n">
         <v>109.26</v>
       </c>
-      <c r="G284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>0.0016232486595736</v>
+      </c>
       <c r="H284" t="n">
         <v>93.09999999999999</v>
       </c>
@@ -10256,7 +10376,9 @@
       <c r="F285" t="n">
         <v>110.03</v>
       </c>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>0.0016232486595736</v>
+      </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
